--- a/onco-core-GenomicsReport.xlsx
+++ b/onco-core-GenomicsReport.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="388">
   <si>
     <t>Path</t>
   </si>
@@ -122,20 +122,23 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: HL7 v2</t>
-  </si>
-  <si>
-    <t>Mapping: RIM</t>
-  </si>
-  <si>
-    <t>Mapping: W5 Mapping</t>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>DiagnosticReport</t>
   </si>
   <si>
     <t>Report
-TestResultResultsLabsLaboratory</t>
+TestResultResultsLabsLaboratoryImaging ReportRadiology Report</t>
   </si>
   <si>
     <t>0</t>
@@ -151,12 +154,20 @@
   </si>
   <si>
     <t>Genetic analysis summary report. The report may include one or more tests, with two distinct test types. The first type is a targeted mutation test, where a specific mutation on a specific gene is tested for. The result is either positive or negative for that mutation. The second type is a more general test for variants. This type of test returns the identity of variants found in a certain region of the genome.
-The identity of laboratory tests is typically represented by a LOINC code. However, many genetic tests and panels do not have LOINC codes, although some might have an identifier in NCBI Genetic Testing Registry (GTR), a central location for voluntary submission of genetic test information by providers. To identify the diagnostic report, the name of the report must be in the text sub-field of the code structure. If there is a coded identifier from GTR, LOINC, or other source, then it should be included into the the code sub-field of the code structure. If there is no suitable code, the code can be omitted.
-The performer of the test (organization or practitioner) should be included in the FHIR profile as the performer.actor.
-FHIR implementation note: The category for this profile is set to GE (Genetics), a code from http://hl7.org/fhir/ValueSet/diagnostic-service-sections. This may be contrary to the Argonaut specification, which assigns the category LAB to any diagnostic report containing a laboratory result.</t>
-  </si>
-  <si>
-    <t>This is intended to capture a single report, and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
+The identity of non-genomic laboratory tests is typically represented by a LOINC code. However, many genetic tests and panels do not have LOINC codes, although some might have an identifier in NCBI Genetic Testing Registry (GTR), a central location for voluntary submission of genetic test information by providers. To identify the diagnostic report, the name of the report must be in the text sub-field of the code structure. If there is a coded identifier from GTR, LOINC, or other source, then it should be included into the the code sub-field of the code structure. If there is no suitable code, the code can be omitted.
+Conformance note: To be conformant to US Core, the code attribute must be a LOINC code, if available. If there is no suitable code in LOINC, then a code from an alternative code system (such as GTR) can be used.
+Implementation note: The performer of the test (organization or practitioner) should be included in the FHIR profile as the performer.actor.
+Conformance note: The category for this profile is set to GE (Genetics), a code from http://hl7.org/fhir/ValueSet/diagnostic-service-sections. This is contrary to the [Argonaut](http://www.fhir.org/guides/argonaut/r2/) and [US Core](http://hl7.org/fhir/us/core/STU3/index.html) specifications, which require the category 'LAB' in diagnostic reports containing laboratory results. This is assumed to be an oversight in the US Core and Argonaut specifications.</t>
+  </si>
+  <si>
+    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+  </si>
+  <si>
+    <t>Event</t>
   </si>
   <si>
     <t>ORU -&gt; OBR</t>
@@ -165,9 +176,6 @@
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
-    <t>clinical.diagnostics</t>
-  </si>
-  <si>
     <t>DiagnosticReport.id</t>
   </si>
   <si>
@@ -177,7 +185,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -187,42 +195,51 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation. Bundles always have an id, though it is usually a generated UUID.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
   </si>
   <si>
     <t>DiagnosticReport.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
   </si>
   <si>
     <t>DiagnosticReport.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
   </si>
   <si>
     <t>DiagnosticReport.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -232,16 +249,19 @@
     <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
   </si>
   <si>
     <t>DiagnosticReport.text</t>
@@ -251,21 +271,20 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
     <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -278,7 +297,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -288,7 +307,10 @@
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
   </si>
   <si>
     <t>N/A</t>
@@ -301,14 +323,14 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -321,10 +343,13 @@
     <t>open</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
     <t>specimentype</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecimenType-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-SpecimenType-extension}
 </t>
   </si>
   <si>
@@ -334,26 +359,29 @@
     <t>DiagnosticReport.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>DiagnosticReport.extension.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -368,7 +396,10 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecimenType-extension"/&gt;</t>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/obf-SpecimenType-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -377,20 +408,20 @@
     <t>DiagnosticReport.extension.valueCodeableConcept</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/GeneticSpecimenTypeVS</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/onco-core-GeneticSpecimenTypeVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -399,7 +430,7 @@
     <t>regionstudied</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-RegionStudied-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-RegionStudied-extension}
 </t>
   </si>
   <si>
@@ -412,67 +443,118 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">ReportID
+    <t>ReportID
+Filler IDPlacer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t>Business identifier for report</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this report by the performer or other systems.</t>
+  </si>
+  <si>
+    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
+  </si>
+  <si>
+    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request
 </t>
   </si>
   <si>
-    <t>Id for external references to this report</t>
-  </si>
-  <si>
-    <t>The local ID assigned to the report by the order filler, usually by the Information System of the diagnostic service provider.</t>
-  </si>
-  <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
-  </si>
-  <si>
-    <t>OBR-51</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t xml:space="preserve">Reference(ServiceRequest|http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest)
+</t>
+  </si>
+  <si>
+    <t>What was requested</t>
+  </si>
+  <si>
+    <t>Details concerning a service requested.</t>
+  </si>
+  <si>
+    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
+  </si>
+  <si>
+    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
   </si>
   <si>
     <t>DiagnosticReport.status</t>
   </si>
   <si>
-    <t>registered | partial | final | corrected | appended | cancelled | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the diagnostic report as a whole.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because applications need to take appropriate action if a report is withdrawn.</t>
+    <t>registered | partial | preliminary | final +</t>
+  </si>
+  <si>
+    <t>The status of the diagnostic report.</t>
   </si>
   <si>
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
   </si>
   <si>
+    <t>Event.status</t>
+  </si>
+  <si>
     <t>OBR-25 (not 1:1 mapping)</t>
   </si>
   <si>
     <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
   </si>
   <si>
-    <t>status</t>
+    <t>FiveWs.status</t>
   </si>
   <si>
     <t>DiagnosticReport.category</t>
   </si>
   <si>
     <t>Department
-Sub-departmentservicediscipline</t>
+Sub-departmentServiceDisciplineservicediscipline</t>
   </si>
   <si>
     <t>Service category</t>
@@ -481,16 +563,10 @@
     <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
   </si>
   <si>
-    <t>The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+    <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-category</t>
   </si>
   <si>
     <t>OBR-24</t>
@@ -499,28 +575,19 @@
     <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
   </si>
   <si>
-    <t>class</t>
+    <t>FiveWs.class</t>
   </si>
   <si>
     <t>DiagnosticReport.category.id</t>
   </si>
   <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -530,16 +597,19 @@
     <t>A reference to a code defined by a terminology system.</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
@@ -564,13 +634,16 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://terminology.hl7.org/CodeSystem/v2-0074"/&gt;</t>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0074</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
   </si>
   <si>
     <t>C*E.3</t>
@@ -585,12 +658,15 @@
     <t>Version of the system - if relevant</t>
   </si>
   <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
   </si>
   <si>
     <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
     <t>C*E.7</t>
   </si>
   <si>
@@ -609,7 +685,10 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="GE"/&gt;</t>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
   </si>
   <si>
     <t>C*E.1</t>
@@ -630,6 +709,9 @@
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
@@ -639,14 +721,14 @@
     <t>DiagnosticReport.category.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
     <t>If this coding was chosen directly by the user</t>
   </si>
   <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
   </si>
   <si>
     <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
@@ -655,6 +737,9 @@
     <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
     <t>Sometimes implied by being first</t>
   </si>
   <si>
@@ -676,6 +761,9 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
@@ -685,16 +773,23 @@
     <t>DiagnosticReport.code</t>
   </si>
   <si>
-    <t>Name/Code for this diagnostic report</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/gtr</t>
+    <t xml:space="preserve">Type
+</t>
+  </si>
+  <si>
+    <t>US Core Report Code</t>
+  </si>
+  <si>
+    <t>The test, panel, report, or note that was ordered.</t>
+  </si>
+  <si>
+    <t>UsageNote= The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/onco-core-GeneticTestVS</t>
+  </si>
+  <si>
+    <t>Event.code</t>
   </si>
   <si>
     <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
@@ -703,7 +798,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>what</t>
+    <t>FiveWs.what[x]</t>
   </si>
   <si>
     <t>DiagnosticReport.subject</t>
@@ -713,39 +808,55 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
-    <t>The subject of the report, usually, but not always, the patient</t>
-  </si>
-  <si>
-    <t>The subject of the report. Usually, but not always, this is a patient. However diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
+    <t>The subject of an observation</t>
+  </si>
+  <si>
+    <t>The subject of an observation.</t>
   </si>
   <si>
     <t>SHALL know the subject context.</t>
   </si>
   <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
     <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
   </si>
   <si>
-    <t>who.focus</t>
+    <t>FiveWs.subject</t>
   </si>
   <si>
     <t>DiagnosticReport.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Context
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
+</t>
+  </si>
+  <si>
     <t>Health care event when test ordered</t>
   </si>
   <si>
-    <t>The link to the health care event (encounter) when the order was made.</t>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) which this DiagnosticReport is about.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter  but still be tied to the context of the encounter  (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>Links the request to the Encounter context.</t>
+  </si>
+  <si>
+    <t>Event.encounter</t>
   </si>
   <si>
     <t>PV1-19</t>
@@ -754,24 +865,24 @@
     <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
   </si>
   <si>
-    <t>context</t>
+    <t>FiveWs.context</t>
   </si>
   <si>
     <t>DiagnosticReport.effective[x]</t>
   </si>
   <si>
     <t>Observation time
-Effective Time</t>
-  </si>
-  <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Clinically Relevant time/time-period for report</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
+Effective TimeOccurrence</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Time of the report or note</t>
+  </si>
+  <si>
+    <t>This is the Datetime or Period when the report or note was written.</t>
   </si>
   <si>
     <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.</t>
@@ -780,30 +891,33 @@
     <t>Need to know where in the patient history to file/present this report.</t>
   </si>
   <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
     <t>OBR-7</t>
   </si>
   <si>
     <t>effectiveTime</t>
   </si>
   <si>
-    <t>when.done</t>
+    <t>FiveWs.done[x]</t>
   </si>
   <si>
     <t>DiagnosticReport.issued</t>
   </si>
   <si>
-    <t>Date Created
-Date publishedDate Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>Date published
+Date IssuedDate Verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
-    <t>DateTime this version was released</t>
-  </si>
-  <si>
-    <t>The date and time that this version of the report was released from the source diagnostic service.</t>
+    <t>DateTime this version was made</t>
+  </si>
+  <si>
+    <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
   </si>
   <si>
     <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.</t>
@@ -818,17 +932,17 @@
     <t>participation[typeCode=VRF or AUT].time</t>
   </si>
   <si>
-    <t>when.recorded</t>
+    <t>FiveWs.recorded</t>
   </si>
   <si>
     <t>DiagnosticReport.performer</t>
   </si>
   <si>
     <t>Laboratory
-ServicePractitionerDepartmentCompany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -838,60 +952,57 @@
     <t>The diagnostic service that is responsible for issuing the report.</t>
   </si>
   <si>
-    <t>This is not necessarily the source of the atomic data items. It is the entity that takes responsibility for the clinical report.</t>
+    <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.</t>
   </si>
   <si>
     <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
   </si>
   <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
     <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
   </si>
   <si>
-    <t>participation[typeCode=AUT].role[classCode=ASSIGN].scoper</t>
-  </si>
-  <si>
-    <t>who.witness</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest]]}
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.resultsInterpreter</t>
+  </si>
+  <si>
+    <t>Analyzed by
+Reported by</t>
+  </si>
+  <si>
+    <t>Primary result interpreter</t>
+  </si>
+  <si>
+    <t>The practitioner or organization that is responsible for the report's conclusions and interpretations.</t>
+  </si>
+  <si>
+    <t>Might not be the same entity that takes responsibility for the clinical report.</t>
+  </si>
+  <si>
+    <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
-    <t>What was requested</t>
-  </si>
-  <si>
-    <t>Details concerning a test or procedure requested.</t>
-  </si>
-  <si>
-    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
-  </si>
-  <si>
-    <t>Need to be able to track completion of requests based on reports issued and also to report what diagnostic tests were requested (not always the same as what is delivered).</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen]]}
-</t>
-  </si>
-  <si>
     <t>Specimens this report is based on</t>
   </si>
   <si>
     <t>Details about the specimens on which this diagnostic report is based.</t>
   </si>
   <si>
-    <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per Observation or group.</t>
+    <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.</t>
   </si>
   <si>
     <t>Need to be able to report information about the collected specimens on which the report is based.</t>
@@ -907,20 +1018,23 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
-    <t>Observations - simple, or complex nested groups</t>
-  </si>
-  <si>
-    <t>Observations that are part of this diagnostic report. Observations can be simple name/value pairs (e.g. "atomic" results), or they can be grouping observations that include references to other members of the group (e.g. "panels").</t>
-  </si>
-  <si>
-    <t>Need to support individual results, or report groups of results, where the result grouping is arbitrary, but meaningful. This structure is recursive - observations can contain observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile:target.reference}
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>[Observations](http://hl7.org/fhir/R4/observation.html)  that are part of this diagnostic report.</t>
+  </si>
+  <si>
+    <t>Observations can contain observations.</t>
+  </si>
+  <si>
+    <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this.resolve().code.coding.code}
 </t>
   </si>
   <si>
@@ -933,33 +1047,33 @@
     <t>onco-core-GeneticVariantFound</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-GeneticVariantFound]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-GeneticVariantFound)
 </t>
   </si>
   <si>
-    <t>GeneticVariantFound</t>
-  </si>
-  <si>
-    <t>Data structure recording an alteration in the most common DNA nucleotide sequence. The term variant can be used to describe an alteration that may be benign, pathogenic, or of unknown significance. The term variant is increasingly being used in place of the term mutation.</t>
-  </si>
-  <si>
-    <t>onco-core-GeneticMutationTestResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-GeneticMutationTestResult]]}
+    <t>GeneticVariantFound: Records an alteration in the most common DNA nucleotide sequence</t>
+  </si>
+  <si>
+    <t>Records an alteration in the most common DNA nucleotide sequence. The term variant can be used to describe an alteration that may be benign, pathogenic, or of unknown significance. The term variant is increasingly being used in place of the term mutation. When reporting 'Genetic Variant Found', at least one element out of the following must be reported: 'Variant Found Identifier', 'Variant Found HGVS Name', and 'Variant Found Description'.</t>
+  </si>
+  <si>
+    <t>onco-core-GeneticVariantTested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-GeneticVariantTested)
 </t>
   </si>
   <si>
-    <t>GeneticMutationTestResult</t>
-  </si>
-  <si>
-    <t>A test for a specific mutation on a particular gene.</t>
+    <t>GeneticVariantTested: A test for a specific mutation on a particular gene</t>
+  </si>
+  <si>
+    <t>A test for a specific mutation on a particular gene. This profile is used to record whether a single discrete variant tested is present or absent (denoted as positive or negative respectively).</t>
   </si>
   <si>
     <t>DiagnosticReport.imagingStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ImagingStudy], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImagingObjectSelection]]}
+    <t xml:space="preserve">Reference(ImagingStudy)
 </t>
   </si>
   <si>
@@ -969,20 +1083,20 @@
     <t>One or more links to full details of any imaging performed during the diagnostic investigation. Typically, this is imaging performed by DICOM enabled modalities, but this is not required. A fully enabled PACS viewer can use this information to provide views of the source images.</t>
   </si>
   <si>
-    <t>ImagingStudy and ImageObjectStudy and the image element are somewhat overlapping - typically, the list of image references in the image element will also be found in one of the imaging study resources. However each caters to different types of displays for different types of purposes. Neither, either, or both may be provided.</t>
+    <t>ImagingStudy and the image element are somewhat overlapping - typically, the list of image references in the image element will also be found in one of the imaging study resources. However, each caters to different types of displays for different types of purposes. Neither, either, or both may be provided.</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
   </si>
   <si>
-    <t>DiagnosticReport.image</t>
+    <t>DiagnosticReport.media</t>
   </si>
   <si>
     <t>DICOM
 SlidesScans</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -995,26 +1109,37 @@
     <t>Many diagnostic services include images in the report as part of their service.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>OBX?</t>
   </si>
   <si>
-    <t>DiagnosticReport.image.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.image.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.image.modifierExtension</t>
+    <t>DiagnosticReport.media.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user contentmodifiers</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.image.comment</t>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.comment</t>
   </si>
   <si>
     <t>Comment about the image (e.g. explanation)</t>
@@ -1032,10 +1157,10 @@
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
   </si>
   <si>
-    <t>DiagnosticReport.image.link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Media]]}
+    <t>DiagnosticReport.media.link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Media)
 </t>
   </si>
   <si>
@@ -1055,13 +1180,10 @@
 </t>
   </si>
   <si>
-    <t>Clinical Interpretation of test results</t>
-  </si>
-  <si>
-    <t>Concise and clinically contextualized narrative interpretation of the diagnostic report.</t>
-  </si>
-  <si>
-    <t>Typically, a report is either [all data, no narrative (e.g. Core lab)] or [a mix of data with some concluding narrative (e.g. Structured Pathology Report, Bone Density)], or [all narrative (e.g. typical imaging report, histopathology)]. In all of these cases, the narrative goes in "text".</t>
+    <t>Clinical conclusion (interpretation) of test results</t>
+  </si>
+  <si>
+    <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.</t>
   </si>
   <si>
     <t>Need to be able to provide a conclusion that is not lost among the basic result data.</t>
@@ -1073,16 +1195,19 @@
     <t>inboundRelationship[typeCode="SPRT"].source[classCode=OBS, moodCode=EVN, code=LOINC:48767-8].value (type=ST)</t>
   </si>
   <si>
-    <t>DiagnosticReport.codedDiagnosis</t>
-  </si>
-  <si>
-    <t>Codes for the conclusion</t>
-  </si>
-  <si>
-    <t>Codes for the conclusion.</t>
-  </si>
-  <si>
-    <t>Diagnoses codes provided as adjuncts to the report.</t>
+    <t>DiagnosticReport.conclusionCode</t>
+  </si>
+  <si>
+    <t>Codes for the clinical conclusion of test results</t>
+  </si>
+  <si>
+    <t>One or more codes that represent the summary conclusion (interpretation/impression) of the diagnostic report.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Diagnosis codes provided as adjuncts to the report.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -1094,7 +1219,7 @@
     <t>DiagnosticReport.presentedForm</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1107,7 +1232,7 @@
     <t>"application/pdf" is recommended as the most reliable and interoperable in this context.</t>
   </si>
   <si>
-    <t>Gives Laboratory the ability to provide its own fully formatted report for clinical fidelity.</t>
+    <t>Gives laboratory the ability to provide its own fully formatted report for clinical fidelity.</t>
   </si>
   <si>
     <t>text (type=ED)</t>
@@ -1163,67 +1288,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1259,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1269,7 +1394,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="46.87109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.34375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.1796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1278,7 +1403,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1291,21 +1416,22 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.96484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="46.80859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.65625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.82421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="36.1484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="25.7109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="93.09375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="118.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="166.02734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="118.1328125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1423,5335 +1549,5784 @@
       <c r="AL1" t="s" s="1">
         <v>37</v>
       </c>
+      <c r="AM1" t="s" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="2"/>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE3" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="AF3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE4" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="AF4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE5" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="AF5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG5" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE6" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AF6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG6" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE7" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AF7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG7" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE8" s="2"/>
-      <c r="AF8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AD9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE9" s="2"/>
-      <c r="AF9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" t="s" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE16" s="2"/>
-      <c r="AF16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG16" s="2"/>
       <c r="AH16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="N17" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE17" s="2"/>
-      <c r="AF17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>133</v>
+        <v>147</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>148</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE18" s="2"/>
-      <c r="AF18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG18" s="2"/>
       <c r="AH18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>142</v>
+        <v>158</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>167</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>168</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE20" s="2"/>
-      <c r="AF20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>42</v>
+        <v>176</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>177</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE21" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="AF21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG21" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AB22" s="2"/>
-      <c r="AC22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE22" s="2"/>
-      <c r="AF22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AC23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE23" s="2"/>
-      <c r="AF23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="C24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE24" s="2"/>
-      <c r="AF24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG24" s="2"/>
       <c r="AH24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE25" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="AF25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG25" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="R26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="S26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE26" s="2"/>
-      <c r="AF26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG26" s="2"/>
       <c r="AH26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE27" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="AF27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG27" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>42</v>
+        <v>201</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE28" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="AF28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>42</v>
+        <v>208</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE29" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="AF29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG29" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>42</v>
+        <v>216</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE30" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="AF30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG30" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE31" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="AF31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG31" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>232</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE32" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="AF32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG32" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>220</v>
+        <v>240</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE33" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="AF33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG33" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>229</v>
+        <v>249</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>250</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE34" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="AF34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG34" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>236</v>
+        <v>259</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE35" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="AF35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG35" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>246</v>
+        <v>270</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>271</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE36" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="AF36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG36" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>256</v>
+        <v>281</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE37" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="AF37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG37" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>266</v>
+        <v>291</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>292</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE38" s="2"/>
-      <c r="AF38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>303</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE39" s="2"/>
-      <c r="AF39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>303</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AB40" s="2"/>
-      <c r="AC40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE40" s="2"/>
-      <c r="AF40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>42</v>
+        <v>259</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AB41" s="2"/>
+      <c r="AC41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AH41" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>42</v>
+        <v>326</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AH42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>42</v>
+        <v>326</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="C43" t="s" s="2">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE43" s="2"/>
-      <c r="AF43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>42</v>
+        <v>326</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE44" s="2"/>
-      <c r="AF44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>42</v>
+        <v>340</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>52</v>
+        <v>343</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>155</v>
+        <v>345</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE45" s="2"/>
-      <c r="AF45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>156</v>
+        <v>348</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>42</v>
+        <v>326</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE46" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="AF46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG46" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>316</v>
+        <v>114</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE47" s="2"/>
-      <c r="AF47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG47" s="2"/>
       <c r="AH47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE48" s="2"/>
-      <c r="AF48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG48" s="2"/>
       <c r="AH48" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE49" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="AF49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG49" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>327</v>
+        <v>43</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>42</v>
+        <v>361</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>329</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>100</v>
+        <v>363</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE50" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="AF50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG50" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>335</v>
+        <v>43</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>42</v>
+        <v>366</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE51" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="AF51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG51" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>42</v>
+        <v>373</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>343</v>
+        <v>124</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="R52" t="s" s="2">
+      <c r="AH52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="S52" t="s" s="2">
+      <c r="G53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="T52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE52" s="2"/>
-      <c r="AF52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG52" s="2"/>
-      <c r="AH52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>42</v>
+      <c r="AH53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL52">
+  <autoFilter ref="A1:AM53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6761,7 +7336,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
